--- a/SIpos Kristóf/Oktv/Oktv 2122/BorsodTermeszet.xlsx
+++ b/SIpos Kristóf/Oktv/Oktv 2122/BorsodTermeszet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sipos_1ce436d\Desktop\Oktv2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DB04C-D344-4853-B7CB-972FB6617F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3267CA-1DBD-476D-899D-A68E4264C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{8BD84310-4C35-4740-B4E6-0C507E469F6D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Országos jelentőségű védett területek Borsod-Abaúj-Zemplén megyében</t>
   </si>
@@ -189,24 +189,6 @@
     <t>Leghosszabb tanösvény neve:</t>
   </si>
   <si>
-    <t>2 óra</t>
-  </si>
-  <si>
-    <t>3 óra</t>
-  </si>
-  <si>
-    <t>4 óra</t>
-  </si>
-  <si>
-    <t>1 óra</t>
-  </si>
-  <si>
-    <t>5 óra</t>
-  </si>
-  <si>
-    <t>6 óra</t>
-  </si>
-  <si>
     <t>Ostályzás</t>
   </si>
   <si>
@@ -231,22 +213,23 @@
     <t>Mennyiség</t>
   </si>
   <si>
-    <t xml:space="preserve">A szakvvezetett és nem szakvezetett tenösvények átlagidejének különbsége: </t>
+    <t xml:space="preserve">A szakvezetett és nem szakvezetett tenösvények átlagidejének különbsége: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="165" formatCode="0&quot; ha&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0&quot; óra&quot;"/>
-    <numFmt numFmtId="167" formatCode="0&quot; db&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.0&quot; km&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00&quot; km/h&quot;"/>
-    <numFmt numFmtId="171" formatCode="0&quot; óra&quot;"/>
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0&quot; ha&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0&quot; óra&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot; db&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot; km&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00&quot; km/h&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; óra&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +246,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,42 +344,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,29 +386,32 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Ezres" xfId="2" builtinId="3"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -892,7 +889,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2013,513 +2009,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2005</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2006</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2007</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2008</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2009</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2010</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2011</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2012</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>2013</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>2014</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>2015</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>2016</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>2017</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>2018</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>2019</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>2020</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>47569</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>49720</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>49630</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>49961</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>50235</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>49448</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>49448</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>49448</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>49448</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>49440</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>49440</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>49440</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>49440</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>49440</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>49440</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>49440</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>49440</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>60783</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>60692</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>60799</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>60931</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>59639</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>59349</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>59349</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>59349</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>59349</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>59349</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>59349</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>59349</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>59349</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>59349</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>59349</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>59349</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>59349</v>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1911</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1876</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1876</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2842</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>2721</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2678</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2678</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2741</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2741</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>2822</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2822</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>2822</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>2822</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>2822</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>2822</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>2822</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>2822</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>9</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>22</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>22</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>22</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>24</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>24</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>24</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>B3+B4+B5+B6</f>
         <v>110263</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f t="shared" ref="C7:R7" si="0">C3+C4+C5+C6</f>
         <v>112288</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>112305</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>113734</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>112595</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>111475</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>111475</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>111538</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>111538</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>111611</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>111620</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
         <v>111633</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
         <v>111633</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>111633</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f t="shared" si="0"/>
         <v>111635</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f t="shared" si="0"/>
         <v>111635</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <f t="shared" si="0"/>
         <v>111635</v>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>B7/B9</f>
         <v>0.13514643120662648</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f t="shared" ref="C8:R8" si="1">C7/C9</f>
         <v>0.13383248770290065</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f t="shared" si="1"/>
         <v>0.13385083507045628</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>0.13464393360025192</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>0.1344461254273272</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>0.1316835531110867</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>0.1316835531110867</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>0.1317245191035864</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>0.1311212158260526</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>0.13159362329024735</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>0.13151631405558514</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f t="shared" si="1"/>
         <v>0.13152217838136518</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <f t="shared" si="1"/>
         <v>0.13148918126244125</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <f t="shared" si="1"/>
         <v>0.13147152763383518</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <f t="shared" si="1"/>
         <v>0.13146676087852557</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <f t="shared" si="1"/>
         <v>0.13146676087852557</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <f t="shared" si="1"/>
         <v>0.13150253439963058</v>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>815878</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>839019</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>839031</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>844702</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>837473</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>846537</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>846537</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>846752</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>850648</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>848149</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>848716</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>848777</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>848990</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>849104</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>849150</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>849150</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <v>848919</v>
       </c>
     </row>
@@ -2538,7 +2534,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,786 +2544,897 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="20">
         <v>8.5</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>14</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="31">
         <v>4.5</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="22">
         <f>(B3/D3)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="19" t="str">
+        <f>VLOOKUP(D3,$I$10:$J$15,2,TRUE)</f>
+        <v>Kicsit lassú</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>2.7</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>15</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="29">
         <v>2.5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F33" si="0">B4/D4</f>
         <v>1.08</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="str">
+        <f t="shared" ref="G4:G33" si="1">VLOOKUP(D4,$I$10:$J$15,2,TRUE)</f>
+        <v>Gyors</v>
+      </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <v>7.5</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>18</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="22">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>4.8</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>12</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="29">
         <v>2.5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyors</v>
+      </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="29">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyors</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>2.5</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="29">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>2.8</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>12</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="29">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333324</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>63</v>
+      <c r="J9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="20">
         <v>10</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="21">
         <v>20</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="31">
         <v>4.5</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="I10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="4"/>
+      <c r="G10" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Kicsit lassú</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="32">
+        <f>COUNTIF($G$3:$G$33,J10)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>3.2</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>10</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="29">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="I11" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
+      <c r="I11" s="30">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="32">
+        <f t="shared" ref="K11:K15" si="2">COUNTIF($G$3:$G$33,J11)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>12</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="29">
         <v>1.5</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="I12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
+      <c r="I12" s="30">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>3.2</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>11</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="29">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="I13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="4"/>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyors</v>
+      </c>
+      <c r="I13" s="30">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>4</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="29">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="I14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>4</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="29">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="I15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="4"/>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyors</v>
+      </c>
+      <c r="I15" s="30">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>25.6</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="21">
         <v>21</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="31">
         <v>7</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="22">
         <f t="shared" si="0"/>
         <v>3.6571428571428575</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Nagyon Lassú</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>5</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>24</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="29">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="23">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Kicsit lassú</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>4.8</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>6</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="29">
         <v>3.5</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="23">
         <f t="shared" si="0"/>
         <v>1.3714285714285714</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="20">
         <v>15</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="21">
         <v>13</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="31">
         <v>5.5</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="22">
         <f t="shared" si="0"/>
         <v>2.7272727272727271</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Lassú</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>1.4</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>4</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="29">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>6</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="29">
         <v>1.5</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="20">
         <v>26</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="21">
         <v>14</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="31">
         <v>8</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Nagyon Lassú</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>7</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="29">
         <v>1.33</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
         <v>1.6541353383458648</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="20">
         <v>8.5</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="21">
         <v>11</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="31">
         <v>4</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="22">
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Kicsit lassú</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>3</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="18">
         <v>9</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="29">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>4.2</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="18">
         <v>2</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="29">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="23">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="20">
         <v>9</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="21">
         <v>12</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="31">
         <v>4.5</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Kicsit lassú</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>4.5</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="18">
         <v>12</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="29">
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="23">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="17">
         <v>3.5</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="18">
         <v>12</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="29">
         <v>1.5</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="23">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Szupergyors</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="17">
         <v>4</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="18">
         <v>6</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="29">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="23">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="17">
         <v>4.2</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="18">
         <v>8</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="29">
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="23">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Átlagos</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="17">
         <v>4.5</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="18">
         <v>12</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="29">
         <v>2.5</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="23">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyors</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="20">
         <v>9</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="21">
         <v>25</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="31">
         <v>6</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="22">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Nagyon Lassú</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="31"/>
+      <c r="D34" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E33">
@@ -3342,6 +3449,7 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>